--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.204259594717239</v>
+        <v>8.607073666666667</v>
       </c>
       <c r="N2">
-        <v>8.204259594717239</v>
+        <v>25.821221</v>
       </c>
       <c r="O2">
-        <v>0.09270162561795539</v>
+        <v>0.09431423806264486</v>
       </c>
       <c r="P2">
-        <v>0.09270162561795539</v>
+        <v>0.09431423806264484</v>
       </c>
       <c r="Q2">
-        <v>1162.432200302074</v>
+        <v>1291.366004358059</v>
       </c>
       <c r="R2">
-        <v>1162.432200302074</v>
+        <v>11622.29403922253</v>
       </c>
       <c r="S2">
-        <v>0.03912455118535913</v>
+        <v>0.03916405681753533</v>
       </c>
       <c r="T2">
-        <v>0.03912455118535913</v>
+        <v>0.03916405681753533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.9144358855075</v>
+        <v>71.03134166666666</v>
       </c>
       <c r="N3">
-        <v>70.9144358855075</v>
+        <v>213.094025</v>
       </c>
       <c r="O3">
-        <v>0.801276874588387</v>
+        <v>0.7783443162342011</v>
       </c>
       <c r="P3">
-        <v>0.801276874588387</v>
+        <v>0.778344316234201</v>
       </c>
       <c r="Q3">
-        <v>10047.61280258001</v>
+        <v>10657.21793778948</v>
       </c>
       <c r="R3">
-        <v>10047.61280258001</v>
+        <v>95914.9614401053</v>
       </c>
       <c r="S3">
-        <v>0.3381774363124634</v>
+        <v>0.3232080505634221</v>
       </c>
       <c r="T3">
-        <v>0.3381774363124634</v>
+        <v>0.3232080505634219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.383092271900241</v>
+        <v>11.62112133333333</v>
       </c>
       <c r="N4">
-        <v>9.383092271900241</v>
+        <v>34.863364</v>
       </c>
       <c r="O4">
-        <v>0.1060214997936575</v>
+        <v>0.1273414457031541</v>
       </c>
       <c r="P4">
-        <v>0.1060214997936575</v>
+        <v>0.1273414457031541</v>
       </c>
       <c r="Q4">
-        <v>1329.456786360781</v>
+        <v>1743.579944076254</v>
       </c>
       <c r="R4">
-        <v>1329.456786360781</v>
+        <v>15692.21949668629</v>
       </c>
       <c r="S4">
-        <v>0.04474617966809485</v>
+        <v>0.05287862911465015</v>
       </c>
       <c r="T4">
-        <v>0.04474617966809485</v>
+        <v>0.05287862911465014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H5">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J5">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.204259594717239</v>
+        <v>8.607073666666667</v>
       </c>
       <c r="N5">
-        <v>8.204259594717239</v>
+        <v>25.821221</v>
       </c>
       <c r="O5">
-        <v>0.09270162561795539</v>
+        <v>0.09431423806264486</v>
       </c>
       <c r="P5">
-        <v>0.09270162561795539</v>
+        <v>0.09431423806264484</v>
       </c>
       <c r="Q5">
-        <v>557.2471552967444</v>
+        <v>588.571002992901</v>
       </c>
       <c r="R5">
-        <v>557.2471552967444</v>
+        <v>5297.139026936108</v>
       </c>
       <c r="S5">
-        <v>0.01875554104973837</v>
+        <v>0.01784995742847231</v>
       </c>
       <c r="T5">
-        <v>0.01875554104973837</v>
+        <v>0.0178499574284723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.9144358855075</v>
+        <v>71.03134166666666</v>
       </c>
       <c r="N6">
-        <v>70.9144358855075</v>
+        <v>213.094025</v>
       </c>
       <c r="O6">
-        <v>0.801276874588387</v>
+        <v>0.7783443162342011</v>
       </c>
       <c r="P6">
-        <v>0.801276874588387</v>
+        <v>0.778344316234201</v>
       </c>
       <c r="Q6">
-        <v>4816.628144252958</v>
+        <v>4857.282466466025</v>
       </c>
       <c r="R6">
-        <v>4816.628144252958</v>
+        <v>43715.54219819422</v>
       </c>
       <c r="S6">
-        <v>0.1621156178585687</v>
+        <v>0.1473098144550102</v>
       </c>
       <c r="T6">
-        <v>0.1621156178585687</v>
+        <v>0.1473098144550102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.383092271900241</v>
+        <v>11.62112133333333</v>
       </c>
       <c r="N7">
-        <v>9.383092271900241</v>
+        <v>34.863364</v>
       </c>
       <c r="O7">
-        <v>0.1060214997936575</v>
+        <v>0.1273414457031541</v>
       </c>
       <c r="P7">
-        <v>0.1060214997936575</v>
+        <v>0.1273414457031541</v>
       </c>
       <c r="Q7">
-        <v>637.3154598582011</v>
+        <v>794.678342948484</v>
       </c>
       <c r="R7">
-        <v>637.3154598582011</v>
+        <v>7152.105086536355</v>
       </c>
       <c r="S7">
-        <v>0.02145043928064214</v>
+        <v>0.02410070241114213</v>
       </c>
       <c r="T7">
-        <v>0.02145043928064214</v>
+        <v>0.02410070241114213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H8">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I8">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J8">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.204259594717239</v>
+        <v>8.607073666666667</v>
       </c>
       <c r="N8">
-        <v>8.204259594717239</v>
+        <v>25.821221</v>
       </c>
       <c r="O8">
-        <v>0.09270162561795539</v>
+        <v>0.09431423806264486</v>
       </c>
       <c r="P8">
-        <v>0.09270162561795539</v>
+        <v>0.09431423806264484</v>
       </c>
       <c r="Q8">
-        <v>748.5844625770856</v>
+        <v>901.4811833587149</v>
       </c>
       <c r="R8">
-        <v>748.5844625770856</v>
+        <v>8113.330650228434</v>
       </c>
       <c r="S8">
-        <v>0.02519547472536535</v>
+        <v>0.0273397783167989</v>
       </c>
       <c r="T8">
-        <v>0.02519547472536535</v>
+        <v>0.02733977831679889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H9">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I9">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J9">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.9144358855075</v>
+        <v>71.03134166666666</v>
       </c>
       <c r="N9">
-        <v>70.9144358855075</v>
+        <v>213.094025</v>
       </c>
       <c r="O9">
-        <v>0.801276874588387</v>
+        <v>0.7783443162342011</v>
       </c>
       <c r="P9">
-        <v>0.801276874588387</v>
+        <v>0.778344316234201</v>
       </c>
       <c r="Q9">
-        <v>6470.473570886493</v>
+        <v>7439.627034820373</v>
       </c>
       <c r="R9">
-        <v>6470.473570886493</v>
+        <v>66956.64331338336</v>
       </c>
       <c r="S9">
-        <v>0.2177799052296352</v>
+        <v>0.2256261779462096</v>
       </c>
       <c r="T9">
-        <v>0.2177799052296352</v>
+        <v>0.2256261779462095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H10">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.383092271900241</v>
+        <v>11.62112133333333</v>
       </c>
       <c r="N10">
-        <v>9.383092271900241</v>
+        <v>34.863364</v>
       </c>
       <c r="O10">
-        <v>0.1060214997936575</v>
+        <v>0.1273414457031541</v>
       </c>
       <c r="P10">
-        <v>0.1060214997936575</v>
+        <v>0.1273414457031541</v>
       </c>
       <c r="Q10">
-        <v>856.1451529635235</v>
+        <v>1217.16423226406</v>
       </c>
       <c r="R10">
-        <v>856.1451529635235</v>
+        <v>10954.47809037654</v>
       </c>
       <c r="S10">
-        <v>0.02881569768156287</v>
+        <v>0.03691369370712048</v>
       </c>
       <c r="T10">
-        <v>0.02881569768156287</v>
+        <v>0.03691369370712048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H11">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I11">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J11">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.204259594717239</v>
+        <v>8.607073666666667</v>
       </c>
       <c r="N11">
-        <v>8.204259594717239</v>
+        <v>25.821221</v>
       </c>
       <c r="O11">
-        <v>0.09270162561795539</v>
+        <v>0.09431423806264486</v>
       </c>
       <c r="P11">
-        <v>0.09270162561795539</v>
+        <v>0.09431423806264484</v>
       </c>
       <c r="Q11">
-        <v>286.000483237573</v>
+        <v>328.4282005482467</v>
       </c>
       <c r="R11">
-        <v>286.000483237573</v>
+        <v>2955.85380493422</v>
       </c>
       <c r="S11">
-        <v>0.009626058657492531</v>
+        <v>0.009960445499838322</v>
       </c>
       <c r="T11">
-        <v>0.009626058657492531</v>
+        <v>0.009960445499838318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H12">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I12">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J12">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>70.9144358855075</v>
+        <v>71.03134166666666</v>
       </c>
       <c r="N12">
-        <v>70.9144358855075</v>
+        <v>213.094025</v>
       </c>
       <c r="O12">
-        <v>0.801276874588387</v>
+        <v>0.7783443162342011</v>
       </c>
       <c r="P12">
-        <v>0.801276874588387</v>
+        <v>0.778344316234201</v>
       </c>
       <c r="Q12">
-        <v>2472.077181082181</v>
+        <v>2710.409673436167</v>
       </c>
       <c r="R12">
-        <v>2472.077181082181</v>
+        <v>24393.6870609255</v>
       </c>
       <c r="S12">
-        <v>0.08320391518771965</v>
+        <v>0.08220027326955937</v>
       </c>
       <c r="T12">
-        <v>0.08320391518771965</v>
+        <v>0.08220027326955932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H13">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I13">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J13">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.383092271900241</v>
+        <v>11.62112133333333</v>
       </c>
       <c r="N13">
-        <v>9.383092271900241</v>
+        <v>34.863364</v>
       </c>
       <c r="O13">
-        <v>0.1060214997936575</v>
+        <v>0.1273414457031541</v>
       </c>
       <c r="P13">
-        <v>0.1060214997936575</v>
+        <v>0.1273414457031541</v>
       </c>
       <c r="Q13">
-        <v>327.0945894683985</v>
+        <v>443.4380505700533</v>
       </c>
       <c r="R13">
-        <v>327.0945894683985</v>
+        <v>3990.94245513048</v>
       </c>
       <c r="S13">
-        <v>0.01100918316335766</v>
+        <v>0.01344842047024133</v>
       </c>
       <c r="T13">
-        <v>0.01100918316335766</v>
+        <v>0.01344842047024133</v>
       </c>
     </row>
   </sheetData>
